--- a/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\TeamProject\3. 요구사항 명세서, 분석서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_sub\project_1\3. 요구사항 명세서, 분석서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="277">
   <si>
     <t>RQ-ID-001-01</t>
   </si>
@@ -48,14 +48,6 @@
     <t>요구사항 상세</t>
   </si>
   <si>
-    <t>로고 이미지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단 부분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 부분</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -68,17 +60,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2023년 각 지역의 60세 이상 인구수 데이터를 막대그래프로 표현</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대수명 예측</t>
-  </si>
-  <si>
-    <t>기대수명 예측</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>그래프 부분</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -87,10 +68,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>그래프 부분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>시/군/구 조건 설정</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -99,14 +76,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사용자가 선택한 조건에 맞춰 두 지역의 예측한 기대수명데이터를 동시에 제공하여 비교할 수 있도록 그래프 제공  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-000-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -131,18 +100,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>시작 연도 조건 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 연도 조건 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원하는 시작 연도의 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>고지혈증 버튼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -175,10 +132,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-ID-000-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-001-03</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -191,22 +144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>지역별 통계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 통계(질병 차트)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>화살표 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 하단의 화살표 버튼을 누르면 최상단으로 이동할 수 있는 버튼 삽입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-100-01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -243,31 +180,13 @@
     <t>RQ-ID-101-09</t>
   </si>
   <si>
-    <t>RQ-ID-101-10</t>
-  </si>
-  <si>
     <t>RQ-ID-200-01</t>
   </si>
   <si>
-    <t>RQ-ID-200-02</t>
-  </si>
-  <si>
     <t>캐러샐 내부에 버튼을 추가하여 캐러셀 이미지에 맞는 서비스로 이동할 수 있는 버튼 삽입</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>지역별 통계(지역별 4대 질병 데이터 확인), 기대수명 예측(지역별 기대수명을 예측 데이터 확인), 정책(각 지역별 정책을 확인), 당신의 만족도는?(만족도 조사 서비스) , 커뮤니티(사용자들끼리의 정보와 지식을 공유하는 기능), 로그인(로그인/회원가입 홈페이지로 이동), 상단에 고정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-001-05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-001-04</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -285,22 +204,6 @@
   </si>
   <si>
     <t>각 질병들의 상세한 정보를 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 조건 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원하는 지역의 예측 기대수명 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -577,205 +480,917 @@
     <t>정책 보기 버튼 클릭 시 정책 조회 화면으로 바로 이동하도록 설정</t>
   </si>
   <si>
+    <t>글 목록</t>
+  </si>
+  <si>
+    <t>게시물 목록을 나타냄</t>
+  </si>
+  <si>
+    <t>글 제목</t>
+  </si>
+  <si>
+    <t>글 제목 클릭 시 게시물 본문을 확인 할 수 있는 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 버튼 클릭 시 제일 처음 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt; 버튼 클릭 시 현재 페이지에서 왼쪽 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>페이지 번호</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt; 버튼 클릭 시 현재 페이지에서 오른쪽 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 버튼 클릭 시 제일 마지막 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>등록 버튼</t>
+  </si>
+  <si>
+    <t>게시물 작성 화면</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>게시글의 제목 입력</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>본문</t>
+  </si>
+  <si>
+    <t>게시글의 본문 입력</t>
+  </si>
+  <si>
+    <t>취소 버튼</t>
+  </si>
+  <si>
+    <t>취소 버튼 클릭 시 게시물이 저장 되지 않고, 게시물 목록 화면으로 돌아가도록 설정</t>
+  </si>
+  <si>
+    <t>게시물 조회 화면</t>
+  </si>
+  <si>
+    <t>게시글 확인</t>
+  </si>
+  <si>
+    <t>목록 버튼</t>
+  </si>
+  <si>
+    <t>목록 버튼 클릭 시 게시물 목록 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>수정 버튼</t>
+  </si>
+  <si>
+    <t>게시물 수정 화면</t>
+  </si>
+  <si>
+    <t>게시글의 제목 수정</t>
+  </si>
+  <si>
+    <t>게시글의 본문 수정</t>
+  </si>
+  <si>
+    <t>취소 버튼 클릭 시 수정 내용이 반영되지 않고, 게시물 조회 화면으로 돌아가도록 설정</t>
+  </si>
+  <si>
+    <t>삭제 버튼</t>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 게시물이 삭제되고, 게시물 목록 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>사용자가 원하는 지역의 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 부분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 조건에 맞춰 미래 기대 수명 데이터 그래프 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 성별을 체크팍스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 흡연 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 음주 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 고혈압 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 당뇨 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 하단의 버튼을 누르면 사용자가 제공한 데이터에 맞는 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측에 사용된 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡연 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>음주 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고혈압 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 완료 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 선택 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 연도 선택 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병 정보(질병 차트)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(과거 기대 수명)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 차트 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(개인별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(개인별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트에 사용된 데이터들과 사용된 데이터들에 대한 자세한 정보를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 기대 수명 계산에 대한 자세한 정보를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 여명 데이터를 제공받고 나서 데이터에 대한 계산 후 계산식에 대한 정보로 이동하는 버튼 삽입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼 클릭 시 게시글 작성 화면으로 이동하고 비로그인시 로그인 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 번호로 게시글에 대한 순서를 볼 수 있도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-600-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-600-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-03</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-06</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-07</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-08</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-601-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-602-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-602-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-602-03</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-603-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-06</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-07</t>
+  </si>
+  <si>
     <t>RQ-ID-500-01</t>
-  </si>
-  <si>
-    <t>커뮤니티 목록 화면</t>
-  </si>
-  <si>
-    <t>글 목록</t>
-  </si>
-  <si>
-    <t>게시물 목록을 나타냄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-500-02</t>
-  </si>
-  <si>
-    <t>글 제목</t>
-  </si>
-  <si>
-    <t>글 제목 클릭 시 게시물 본문을 확인 할 수 있는 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 나이를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-500-03</t>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt; 버튼 클릭 시 제일 처음 페이지로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-500-04</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt; 버튼 클릭 시 현재 페이지에서 왼쪽 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-500-05</t>
-  </si>
-  <si>
-    <t>페이지 번호</t>
-  </si>
-  <si>
-    <t>페이지 번호 버튼 클릭 시 클릭한 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-500-06</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt; 버튼 클릭 시 현재 페이지에서 오른쪽 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-500-07</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt; 버튼 클릭 시 제일 마지막 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-500-08</t>
-  </si>
-  <si>
-    <t>등록 버튼</t>
-  </si>
-  <si>
-    <t>등록 버튼 클릭 시 게시물 작성 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디와 비밀번호로 유효성 검사를 진행 후 로그인을 진행하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-01</t>
-  </si>
-  <si>
-    <t>게시물 작성 화면</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>게시글의 제목 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-02</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>작성자의 이름 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-03</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>작성자의 비밀번호 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-04</t>
-  </si>
-  <si>
-    <t>본문</t>
-  </si>
-  <si>
-    <t>게시글의 본문 입력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-05</t>
-  </si>
-  <si>
-    <t>등록 버튼 클릭 시 게시물이 등록 되고, 게시물 목록 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RQ-ID-501-06</t>
-  </si>
-  <si>
-    <t>취소 버튼</t>
-  </si>
-  <si>
-    <t>취소 버튼 클릭 시 게시물이 저장 되지 않고, 게시물 목록 화면으로 돌아가도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-502-01</t>
-  </si>
-  <si>
-    <t>게시물 조회 화면</t>
-  </si>
-  <si>
-    <t>게시글 확인</t>
-  </si>
-  <si>
-    <t>게시물의 내용을 보여줌</t>
-  </si>
-  <si>
-    <t>RQ-ID-502-02</t>
-  </si>
-  <si>
-    <t>목록 버튼</t>
-  </si>
-  <si>
-    <t>목록 버튼 클릭 시 게시물 목록 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-502-03</t>
-  </si>
-  <si>
-    <t>수정 버튼</t>
-  </si>
-  <si>
-    <t>수정 버튼 클릭 시 게시물 수정 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-01</t>
-  </si>
-  <si>
-    <t>게시물 수정 화면</t>
-  </si>
-  <si>
-    <t>게시글의 제목 수정</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-03</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-04</t>
-  </si>
-  <si>
-    <t>게시글의 본문 수정</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-05</t>
-  </si>
-  <si>
-    <t>수정 버튼 클릭 시 수정 된 내용이 반영되고 게시물 목록 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-06</t>
-  </si>
-  <si>
-    <t>취소 버튼 클릭 시 수정 내용이 반영되지 않고, 게시물 조회 화면으로 돌아가도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-503-07</t>
-  </si>
-  <si>
-    <t>삭제 버튼</t>
-  </si>
-  <si>
-    <t>삭제 버튼 클릭 시 게시물이 삭제되고, 게시물 목록 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백없이 영어, 숫자로만 이루어진 아이디를 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 로그인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력창을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 확인할 수 있도록 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름을 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입하기 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력창에 입력된 사용자 정보에 대한 유효성 검사를 진행하고 회원가입을 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>리셋 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력창에 입력된 사용자 정보에 대한 값을 초기화를 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 작성자의 이름 표시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼 클릭 시 게시물이 등록 되고, 작성한 게시글 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디와 글의 작성자가 같으면 수정 버튼 나오고 클릭 시 게시물 수정 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-601-03</t>
+  </si>
+  <si>
+    <t>글에 대한 댓글을 작성하기 위한 입력창이며 댓글 등록 버튼을 클릭하여 작성할 수 있도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록창</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비로그인시 로그인 화면으로 이동하고 로그인시에는 버튼 클릭 시 현재 페이지의 글에 댓글이 작성되도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 작성자의 이름 표시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼 클릭 시 수정 된 내용이 반영되고 게시물 조회 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물을 작성일 기준으로 10개씩 보여지도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-000-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강·정책(질병 정보, 정책 정보 확인), 삶의 질 분석(기대 수명 예측, 당신의 만족도는?), 커뮤니티, 로그인으로 구분되어 있으며 각 구분된 영역 클릭시 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-000-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 이미지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -905,8 +1520,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -915,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +1610,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,8 +1625,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1430,10 +2048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1446,7 +2064,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1454,10 +2072,10 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
@@ -1466,9 +2084,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>6</v>
@@ -1476,1165 +2094,1475 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>64</v>
+        <v>275</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>62</v>
+      <c r="D6" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
+      <c r="C7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>43</v>
+        <v>183</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>44</v>
+        <v>184</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>28</v>
+        <v>184</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>29</v>
+        <v>184</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>21</v>
+        <v>184</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>34</v>
+        <v>184</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>38</v>
+        <v>184</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>39</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>40</v>
+        <v>184</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>70</v>
+        <v>184</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>22</v>
+        <v>189</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>74</v>
+        <v>189</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>32</v>
+        <v>189</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C49" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="D49" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="B52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B53" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="9" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="B55" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="C55" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="D55" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="8" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B56" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="D56" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="8" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="B57" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="D57" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="8" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="B58" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="D58" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="8" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="B59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="11" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="B60" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="C60" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="D60" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="B61" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="10" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="B62" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="D62" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B63" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D63" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="12" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="B64" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="D64" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="12" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="B65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="D65" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="12" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="D81" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="13" t="s">
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D82" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="D83" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="12" t="s">
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="D84" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="13" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D85" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="D86" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="13" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D87" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="14" t="s">
+      <c r="D88" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="C90" s="18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="D90" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="14" t="s">
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D91" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+      <c r="D92" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="14" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D94" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="14" t="s">
+      <c r="C96" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D96" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="D97" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="16" t="s">
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D98" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="C102" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+    <row r="103" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="16" t="s">
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D105" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="17" t="s">
+    </row>
+    <row r="107" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="D107" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="5:24" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="278">
   <si>
     <t>RQ-ID-001-01</t>
   </si>
@@ -1390,6 +1390,10 @@
   </si>
   <si>
     <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1628,11 +1632,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2050,8 +2054,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2066,9 +2070,9 @@
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2094,7 +2098,7 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2440,7 +2444,7 @@
         <v>171</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>156</v>
@@ -2454,7 +2458,7 @@
         <v>172</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>181</v>
@@ -2468,7 +2472,7 @@
         <v>191</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>182</v>
@@ -2482,7 +2486,7 @@
         <v>192</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>187</v>

--- a/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
@@ -595,10 +595,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>사용자의 성별을 체크팍스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자의 흡연 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1394,6 +1390,10 @@
   </si>
   <si>
     <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 성별을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2054,8 +2054,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>6</v>
@@ -2099,21 +2099,21 @@
         <v>5</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2184,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>9</v>
@@ -2198,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>12</v>
@@ -2212,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>18</v>
@@ -2226,7 +2226,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>19</v>
@@ -2240,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>14</v>
@@ -2254,7 +2254,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>22</v>
@@ -2268,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>24</v>
@@ -2282,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>25</v>
@@ -2296,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>26</v>
@@ -2311,7 +2311,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>13</v>
@@ -2332,13 +2332,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2346,105 +2346,105 @@
         <v>158</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>156</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>155</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>21</v>
@@ -2483,24 +2483,24 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>156</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>155</v>
@@ -2525,16 +2525,16 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2900,178 +2900,178 @@
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>224</v>
-      </c>
       <c r="D67" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>226</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>232</v>
-      </c>
       <c r="D70" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>241</v>
-      </c>
       <c r="D73" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="C75" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C79" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>122</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>124</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>126</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>128</v>
@@ -3124,24 +3124,24 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>131</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>133</v>
@@ -3166,16 +3166,16 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>135</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,7 +3186,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>136</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>136</v>
@@ -3209,12 +3209,12 @@
         <v>139</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>136</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>136</v>
@@ -3237,12 +3237,12 @@
         <v>135</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>136</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>144</v>
@@ -3265,12 +3265,12 @@
         <v>145</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>144</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>144</v>
@@ -3293,40 +3293,40 @@
         <v>148</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>144</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>144</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>149</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>149</v>
@@ -3349,12 +3349,12 @@
         <v>139</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>149</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="105" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>149</v>
@@ -3377,12 +3377,12 @@
         <v>148</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>149</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>149</v>

--- a/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_DLT 요구사항 명세서_v0.1.xlsx
@@ -207,6 +207,1160 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>RQ-ID-300-01</t>
+  </si>
+  <si>
+    <t>정책 화면</t>
+  </si>
+  <si>
+    <t>텍스트</t>
+  </si>
+  <si>
+    <t>제공하는 네 가지 정책을 설명하고 지도 클릭 안내</t>
+  </si>
+  <si>
+    <t>RQ-ID-300-02</t>
+  </si>
+  <si>
+    <t>지도</t>
+  </si>
+  <si>
+    <t>카카오맵을 이용해 원하는 지역을 클릭할 수 있도록 설정</t>
+  </si>
+  <si>
+    <t>RQ-ID-300-03</t>
+  </si>
+  <si>
+    <t>지도_지역 버튼</t>
+  </si>
+  <si>
+    <t>지역 클릭 시 해당 지역의 정책 안내 화면으로 이동</t>
+  </si>
+  <si>
+    <t>RQ-ID-301-01</t>
+  </si>
+  <si>
+    <t>서울 정책 조회 화면</t>
+  </si>
+  <si>
+    <t>서울 페이지 경로</t>
+  </si>
+  <si>
+    <t>상단 현재 페이지 경로를 단계별로 나타내고 각 단계 클릭 시 해당 단계로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>RQ-ID-301-02</t>
+  </si>
+  <si>
+    <t>어르신 일자리 버튼</t>
+  </si>
+  <si>
+    <t>어르신 일자리 버튼 클릭 시 버튼 색상이 변경되고, 서울시 어르신 일자리 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-301-03</t>
+  </si>
+  <si>
+    <t>생활 안정 지원 버튼</t>
+  </si>
+  <si>
+    <t>생활 안정 지원 버튼 클릭 시 버튼 색상이 변경되고, 서울시 생활 안정 지원 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-301-04</t>
+  </si>
+  <si>
+    <t>여가 복지 지원 버튼</t>
+  </si>
+  <si>
+    <t>여가 복지 지원 버튼 클릭 시 버튼 색상이 변경되고, 서울시 여가 복지 지원 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-301-05</t>
+  </si>
+  <si>
+    <t>어르신 건강 증진 버튼</t>
+  </si>
+  <si>
+    <t>어르신 건강 증진 버튼 클릭 시 버튼 색상이 변경되고, 서울시 어르신 건강 증진 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-302-01</t>
+  </si>
+  <si>
+    <t>전남 정책 조회 화면</t>
+  </si>
+  <si>
+    <t>전남 페이지 경로</t>
+  </si>
+  <si>
+    <t>RQ-ID-302-02</t>
+  </si>
+  <si>
+    <t>어르신 일자리 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 어르신 일자리 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-302-03</t>
+  </si>
+  <si>
+    <t>생활 안정 지원 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 생활 안정 지원 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-302-04</t>
+  </si>
+  <si>
+    <t>여가 복지 지원 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 여가 복지 지원 정책 조회</t>
+  </si>
+  <si>
+    <t>RQ-ID-302-05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어르신 건강 증진 버튼 클릭 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">버튼 색상이 변경되고, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전라남도 어르신 건강 증진 정책 조회</t>
+    </r>
+  </si>
+  <si>
+    <t>RQ-ID-400-01</t>
+  </si>
+  <si>
+    <t>당신의 만족도는? 화면</t>
+  </si>
+  <si>
+    <t>설문지</t>
+  </si>
+  <si>
+    <t>구글 설문을 이용하여 삶의 만족도를 알아볼 수 있는 설문 화면 구성</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-02</t>
+  </si>
+  <si>
+    <t>결과 보기 버튼</t>
+  </si>
+  <si>
+    <t>결과 확인 버튼 클릭 시 작성한 설문지에 대한 만족도 점수를 조회하는 아래 화면으로 바로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-03</t>
+  </si>
+  <si>
+    <t>만족도 점수 박스</t>
+  </si>
+  <si>
+    <t>설문자가 작성한 설문지에 대한 총 만족도 결과를 점수로 나타냄</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-04</t>
+  </si>
+  <si>
+    <t>경제적 상황 만족도 박스</t>
+  </si>
+  <si>
+    <t>설문자의 경제적 상황 만족도를 점수로 나타냄</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-05</t>
+  </si>
+  <si>
+    <t>사회적 관계 만족도 박스</t>
+  </si>
+  <si>
+    <t>설문자의 사회적 관계 만족도를 점수로 나타냄</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-06</t>
+  </si>
+  <si>
+    <t>건강 상태 만족도 박스</t>
+  </si>
+  <si>
+    <t>설문자의 건강 상태 만족도를 점수로 나타냄</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-07</t>
+  </si>
+  <si>
+    <t>만족도 텍스트</t>
+  </si>
+  <si>
+    <t>설문자의 만족도 중 높은 점수의 만족도와 낮은 점수의 만족도를 알려주고, 평균 그래프 보기 버튼을 클릭하도록 유도하는 문구를 보여줌</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-08</t>
+  </si>
+  <si>
+    <t>평균 그래프 보기 버튼</t>
+  </si>
+  <si>
+    <t>평균 그래프 보기 버튼 클릭 시 설문자의 만족도와 평균 만족도를 비교 확인 할 수 있는 아래 화면으로 바로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-09</t>
+  </si>
+  <si>
+    <t>비교그래프</t>
+  </si>
+  <si>
+    <t>설문자와 성별, 연령대가 동일한 사람들의 평균 만족도 그래프를 설문자와 비교해서 보여줌</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-10</t>
+  </si>
+  <si>
+    <t>그래프 텍스트</t>
+  </si>
+  <si>
+    <t>평균 보다 높은 설문자의 만족도와 낮은 설문자의 만족도를 알려주고, 정책 보기 버튼을 클릭하도록 유도하는 문구를 보여줌</t>
+  </si>
+  <si>
+    <t>RQ-ID-400-11</t>
+  </si>
+  <si>
+    <t>정책 보기 버튼</t>
+  </si>
+  <si>
+    <t>정책 보기 버튼 클릭 시 정책 조회 화면으로 바로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>글 목록</t>
+  </si>
+  <si>
+    <t>게시물 목록을 나타냄</t>
+  </si>
+  <si>
+    <t>글 제목</t>
+  </si>
+  <si>
+    <t>글 제목 클릭 시 게시물 본문을 확인 할 수 있는 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 버튼 클릭 시 제일 처음 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt; 버튼 클릭 시 현재 페이지에서 왼쪽 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>페이지 번호</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt; 버튼 클릭 시 현재 페이지에서 오른쪽 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 버튼 클릭 시 제일 마지막 페이지로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>등록 버튼</t>
+  </si>
+  <si>
+    <t>게시물 작성 화면</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>게시글의 제목 입력</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>본문</t>
+  </si>
+  <si>
+    <t>게시글의 본문 입력</t>
+  </si>
+  <si>
+    <t>취소 버튼</t>
+  </si>
+  <si>
+    <t>취소 버튼 클릭 시 게시물이 저장 되지 않고, 게시물 목록 화면으로 돌아가도록 설정</t>
+  </si>
+  <si>
+    <t>게시물 조회 화면</t>
+  </si>
+  <si>
+    <t>게시글 확인</t>
+  </si>
+  <si>
+    <t>목록 버튼</t>
+  </si>
+  <si>
+    <t>목록 버튼 클릭 시 게시물 목록 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>수정 버튼</t>
+  </si>
+  <si>
+    <t>게시물 수정 화면</t>
+  </si>
+  <si>
+    <t>게시글의 제목 수정</t>
+  </si>
+  <si>
+    <t>게시글의 본문 수정</t>
+  </si>
+  <si>
+    <t>취소 버튼 클릭 시 수정 내용이 반영되지 않고, 게시물 조회 화면으로 돌아가도록 설정</t>
+  </si>
+  <si>
+    <t>삭제 버튼</t>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 게시물이 삭제되고, 게시물 목록 화면으로 이동하도록 설정</t>
+  </si>
+  <si>
+    <t>사용자가 원하는 지역의 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 부분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 선택한 조건에 맞춰 미래 기대 수명 데이터 그래프 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 흡연 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 음주 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 고혈압 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 당뇨 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 하단의 버튼을 누르면 사용자가 제공한 데이터에 맞는 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-08</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측에 사용된 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡연 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>음주 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고혈압 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨 여부 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 완료 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 선택 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 연도 선택 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질병 정보(질병 차트)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(과거 기대 수명)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 차트 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(개인별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(개인별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트에 사용된 데이터들과 사용된 데이터들에 대한 자세한 정보를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 기대 수명 계산에 대한 자세한 정보를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 여명 데이터를 제공받고 나서 데이터에 대한 계산 후 계산식에 대한 정보로 이동하는 버튼 삽입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼 클릭 시 게시글 작성 화면으로 이동하고 비로그인시 로그인 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 번호로 게시글에 대한 순서를 볼 수 있도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-600-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-600-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-03</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-06</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-07</t>
+  </si>
+  <si>
+    <t>RQ-ID-600-08</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-601-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-601-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-602-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-602-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-602-03</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-603-02</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-04</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-05</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-06</t>
+  </si>
+  <si>
+    <t>RQ-ID-603-07</t>
+  </si>
+  <si>
+    <t>RQ-ID-500-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-500-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 나이를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-500-03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-500-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디와 비밀번호로 유효성 검사를 진행 후 로그인을 진행하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력창</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백없이 영어, 숫자로만 이루어진 아이디를 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 로그인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력창을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력창</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 확인할 수 있도록 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름을 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-501-07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입하기 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력창에 입력된 사용자 정보에 대한 유효성 검사를 진행하고 회원가입을 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>리셋 버튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력창에 입력된 사용자 정보에 대한 값을 초기화를 진행</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 작성자의 이름 표시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 버튼 클릭 시 게시물이 등록 되고, 작성한 게시글 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디와 글의 작성자가 같으면 수정 버튼 나오고 클릭 시 게시물 수정 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-601-03</t>
+  </si>
+  <si>
+    <t>글에 대한 댓글을 작성하기 위한 입력창이며 댓글 등록 버튼을 클릭하여 작성할 수 있도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록창</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비로그인시 로그인 화면으로 이동하고 로그인시에는 버튼 클릭 시 현재 페이지의 글에 댓글이 작성되도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 작성자의 이름 표시</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼 클릭 시 수정 된 내용이 반영되고 게시물 조회 화면으로 이동하도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물을 작성일 기준으로 10개씩 보여지도록 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-000-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강·정책(질병 정보, 정책 정보 확인), 삶의 질 분석(기대 수명 예측, 당신의 만족도는?), 커뮤니티, 로그인으로 구분되어 있으며 각 구분된 영역 클릭시 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-000-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 이미지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 성별을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -238,1162 +1392,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>생활환경에 따른 노인 기대 수명 및 삶의 만족도 분석 서비스</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-300-01</t>
-  </si>
-  <si>
-    <t>정책 화면</t>
-  </si>
-  <si>
-    <t>텍스트</t>
-  </si>
-  <si>
-    <t>제공하는 네 가지 정책을 설명하고 지도 클릭 안내</t>
-  </si>
-  <si>
-    <t>RQ-ID-300-02</t>
-  </si>
-  <si>
-    <t>지도</t>
-  </si>
-  <si>
-    <t>카카오맵을 이용해 원하는 지역을 클릭할 수 있도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-300-03</t>
-  </si>
-  <si>
-    <t>지도_지역 버튼</t>
-  </si>
-  <si>
-    <t>지역 클릭 시 해당 지역의 정책 안내 화면으로 이동</t>
-  </si>
-  <si>
-    <t>RQ-ID-301-01</t>
-  </si>
-  <si>
-    <t>서울 정책 조회 화면</t>
-  </si>
-  <si>
-    <t>서울 페이지 경로</t>
-  </si>
-  <si>
-    <t>상단 현재 페이지 경로를 단계별로 나타내고 각 단계 클릭 시 해당 단계로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-301-02</t>
-  </si>
-  <si>
-    <t>어르신 일자리 버튼</t>
-  </si>
-  <si>
-    <t>어르신 일자리 버튼 클릭 시 버튼 색상이 변경되고, 서울시 어르신 일자리 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-301-03</t>
-  </si>
-  <si>
-    <t>생활 안정 지원 버튼</t>
-  </si>
-  <si>
-    <t>생활 안정 지원 버튼 클릭 시 버튼 색상이 변경되고, 서울시 생활 안정 지원 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-301-04</t>
-  </si>
-  <si>
-    <t>여가 복지 지원 버튼</t>
-  </si>
-  <si>
-    <t>여가 복지 지원 버튼 클릭 시 버튼 색상이 변경되고, 서울시 여가 복지 지원 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-301-05</t>
-  </si>
-  <si>
-    <t>어르신 건강 증진 버튼</t>
-  </si>
-  <si>
-    <t>어르신 건강 증진 버튼 클릭 시 버튼 색상이 변경되고, 서울시 어르신 건강 증진 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-302-01</t>
-  </si>
-  <si>
-    <t>전남 정책 조회 화면</t>
-  </si>
-  <si>
-    <t>전남 페이지 경로</t>
-  </si>
-  <si>
-    <t>RQ-ID-302-02</t>
-  </si>
-  <si>
-    <t>어르신 일자리 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 어르신 일자리 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-302-03</t>
-  </si>
-  <si>
-    <t>생활 안정 지원 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 생활 안정 지원 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-302-04</t>
-  </si>
-  <si>
-    <t>여가 복지 지원 버튼 클릭 시 버튼 색상이 변경되고, 전라남도 여가 복지 지원 정책 조회</t>
-  </si>
-  <si>
-    <t>RQ-ID-302-05</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">어르신 건강 증진 버튼 클릭 시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">버튼 색상이 변경되고, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전라남도 어르신 건강 증진 정책 조회</t>
-    </r>
-  </si>
-  <si>
-    <t>RQ-ID-400-01</t>
-  </si>
-  <si>
-    <t>당신의 만족도는? 화면</t>
-  </si>
-  <si>
-    <t>설문지</t>
-  </si>
-  <si>
-    <t>구글 설문을 이용하여 삶의 만족도를 알아볼 수 있는 설문 화면 구성</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-02</t>
-  </si>
-  <si>
-    <t>결과 보기 버튼</t>
-  </si>
-  <si>
-    <t>결과 확인 버튼 클릭 시 작성한 설문지에 대한 만족도 점수를 조회하는 아래 화면으로 바로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-03</t>
-  </si>
-  <si>
-    <t>만족도 점수 박스</t>
-  </si>
-  <si>
-    <t>설문자가 작성한 설문지에 대한 총 만족도 결과를 점수로 나타냄</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-04</t>
-  </si>
-  <si>
-    <t>경제적 상황 만족도 박스</t>
-  </si>
-  <si>
-    <t>설문자의 경제적 상황 만족도를 점수로 나타냄</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-05</t>
-  </si>
-  <si>
-    <t>사회적 관계 만족도 박스</t>
-  </si>
-  <si>
-    <t>설문자의 사회적 관계 만족도를 점수로 나타냄</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-06</t>
-  </si>
-  <si>
-    <t>건강 상태 만족도 박스</t>
-  </si>
-  <si>
-    <t>설문자의 건강 상태 만족도를 점수로 나타냄</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-07</t>
-  </si>
-  <si>
-    <t>만족도 텍스트</t>
-  </si>
-  <si>
-    <t>설문자의 만족도 중 높은 점수의 만족도와 낮은 점수의 만족도를 알려주고, 평균 그래프 보기 버튼을 클릭하도록 유도하는 문구를 보여줌</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-08</t>
-  </si>
-  <si>
-    <t>평균 그래프 보기 버튼</t>
-  </si>
-  <si>
-    <t>평균 그래프 보기 버튼 클릭 시 설문자의 만족도와 평균 만족도를 비교 확인 할 수 있는 아래 화면으로 바로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-09</t>
-  </si>
-  <si>
-    <t>비교그래프</t>
-  </si>
-  <si>
-    <t>설문자와 성별, 연령대가 동일한 사람들의 평균 만족도 그래프를 설문자와 비교해서 보여줌</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-10</t>
-  </si>
-  <si>
-    <t>그래프 텍스트</t>
-  </si>
-  <si>
-    <t>평균 보다 높은 설문자의 만족도와 낮은 설문자의 만족도를 알려주고, 정책 보기 버튼을 클릭하도록 유도하는 문구를 보여줌</t>
-  </si>
-  <si>
-    <t>RQ-ID-400-11</t>
-  </si>
-  <si>
-    <t>정책 보기 버튼</t>
-  </si>
-  <si>
-    <t>정책 보기 버튼 클릭 시 정책 조회 화면으로 바로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>글 목록</t>
-  </si>
-  <si>
-    <t>게시물 목록을 나타냄</t>
-  </si>
-  <si>
-    <t>글 제목</t>
-  </si>
-  <si>
-    <t>글 제목 클릭 시 게시물 본문을 확인 할 수 있는 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt; 버튼 클릭 시 제일 처음 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt; 버튼 클릭 시 현재 페이지에서 왼쪽 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>페이지 번호</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt; 버튼 클릭 시 현재 페이지에서 오른쪽 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt; 버튼 클릭 시 제일 마지막 페이지로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>등록 버튼</t>
-  </si>
-  <si>
-    <t>게시물 작성 화면</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>게시글의 제목 입력</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>본문</t>
-  </si>
-  <si>
-    <t>게시글의 본문 입력</t>
-  </si>
-  <si>
-    <t>취소 버튼</t>
-  </si>
-  <si>
-    <t>취소 버튼 클릭 시 게시물이 저장 되지 않고, 게시물 목록 화면으로 돌아가도록 설정</t>
-  </si>
-  <si>
-    <t>게시물 조회 화면</t>
-  </si>
-  <si>
-    <t>게시글 확인</t>
-  </si>
-  <si>
-    <t>목록 버튼</t>
-  </si>
-  <si>
-    <t>목록 버튼 클릭 시 게시물 목록 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>수정 버튼</t>
-  </si>
-  <si>
-    <t>게시물 수정 화면</t>
-  </si>
-  <si>
-    <t>게시글의 제목 수정</t>
-  </si>
-  <si>
-    <t>게시글의 본문 수정</t>
-  </si>
-  <si>
-    <t>취소 버튼 클릭 시 수정 내용이 반영되지 않고, 게시물 조회 화면으로 돌아가도록 설정</t>
-  </si>
-  <si>
-    <t>삭제 버튼</t>
-  </si>
-  <si>
-    <t>삭제 버튼 클릭 시 게시물이 삭제되고, 게시물 목록 화면으로 이동하도록 설정</t>
-  </si>
-  <si>
-    <t>사용자가 원하는 지역의 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래프 부분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 선택한 조건에 맞춰 미래 기대 수명 데이터 그래프 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 흡연 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 음주 여부을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 고혈압 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 당뇨 여부를 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 하단의 버튼을 누르면 사용자가 제공한 데이터에 맞는 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측에 사용된 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>흡연 여부 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>음주 여부 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>고혈압 여부 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>당뇨 여부 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성 완료 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 선택 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준 연도 선택 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>질병 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>질병 정보(질병 차트)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대 수명 예측(과거 기대 수명)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 차트 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대 수명 예측(개인별)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대 수명 예측(개인별)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트에 사용된 데이터들과 사용된 데이터들에 대한 자세한 정보를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-200-16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인별 기대 수명 계산에 대한 자세한 정보를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대 여명 데이터를 제공받고 나서 데이터에 대한 계산 후 계산식에 대한 정보로 이동하는 버튼 삽입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 목록 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 버튼 클릭 시 게시글 작성 화면으로 이동하고 비로그인시 로그인 화면으로 이동하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 번호로 게시글에 대한 순서를 볼 수 있도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-600-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-600-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-03</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-04</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-05</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-06</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-07</t>
-  </si>
-  <si>
-    <t>RQ-ID-600-08</t>
-  </si>
-  <si>
-    <t>RQ-ID-601-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-601-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-601-04</t>
-  </si>
-  <si>
-    <t>RQ-ID-601-05</t>
-  </si>
-  <si>
-    <t>RQ-ID-602-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-602-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-602-03</t>
-  </si>
-  <si>
-    <t>RQ-ID-603-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-603-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-603-04</t>
-  </si>
-  <si>
-    <t>RQ-ID-603-05</t>
-  </si>
-  <si>
-    <t>RQ-ID-603-06</t>
-  </si>
-  <si>
-    <t>RQ-ID-603-07</t>
-  </si>
-  <si>
-    <t>RQ-ID-500-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-500-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 나이를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-500-03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-500-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디와 비밀번호로 유효성 검사를 진행 후 로그인을 진행하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지로 이동하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력창</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공백없이 영어, 숫자로만 이루어진 아이디를 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 비밀번호를 입력창을 이용하여 입력할 수 있도록 하고 작성 완료 버튼을 눌러 로그인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>사용자의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아이디를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력창을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이용하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있도록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>버튼을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>눌러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인 입력창</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 확인할 수 있도록 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름을 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 형식만 입력할 수 있도록 하고 가입하기 버튼을 눌러 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-501-07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입하기 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력창에 입력된 사용자 정보에 대한 유효성 검사를 진행하고 회원가입을 진행</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>리셋 버튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력창에 입력된 사용자 정보에 대한 값을 초기화를 진행</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 작성자의 이름 표시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록 버튼 클릭 시 게시물이 등록 되고, 작성한 게시글 화면으로 이동하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디와 글의 작성자가 같으면 수정 버튼 나오고 클릭 시 게시물 수정 화면으로 이동하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-601-03</t>
-  </si>
-  <si>
-    <t>글에 대한 댓글을 작성하기 위한 입력창이며 댓글 등록 버튼을 클릭하여 작성할 수 있도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>댓글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>댓글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>등록창</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비로그인시 로그인 화면으로 이동하고 로그인시에는 버튼 클릭 시 현재 페이지의 글에 댓글이 작성되도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 작성자의 이름 표시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 버튼 클릭 시 수정 된 내용이 반영되고 게시물 조회 화면으로 이동하도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물을 작성일 기준으로 10개씩 보여지도록 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-000-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강·정책(질병 정보, 정책 정보 확인), 삶의 질 분석(기대 수명 예측, 당신의 만족도는?), 커뮤니티, 로그인으로 구분되어 있으며 각 구분된 영역 클릭시 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-000-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고 이미지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대 수명 예측(지역별)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 성별을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
+      <t>생활환경에 따른 노인 기대 수명 및 질병 정보 제공 서비스</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1534,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,6 +1637,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2054,8 +2057,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2067,8 +2070,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
+      <c r="A1" s="35" t="s">
+        <v>277</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>6</v>
@@ -2099,21 +2102,21 @@
         <v>5</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>274</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -2184,7 +2187,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>9</v>
@@ -2198,7 +2201,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>12</v>
@@ -2212,7 +2215,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>18</v>
@@ -2226,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>19</v>
@@ -2240,7 +2243,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>14</v>
@@ -2254,7 +2257,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>22</v>
@@ -2268,7 +2271,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>24</v>
@@ -2282,7 +2285,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>25</v>
@@ -2296,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>26</v>
@@ -2311,7 +2314,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>13</v>
@@ -2332,150 +2335,150 @@
         <v>43</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>21</v>
@@ -2483,101 +2486,101 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:4" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,72 +2591,72 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,72 +2667,72 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,156 +2743,156 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="14" t="s">
+      <c r="D62" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="D63" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="14" t="s">
+      <c r="D64" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="14" t="s">
+      <c r="D65" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,282 +2903,282 @@
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>223</v>
-      </c>
       <c r="D67" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>225</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C69" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>231</v>
-      </c>
       <c r="D70" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="D73" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B75" s="24" t="s">
-        <v>239</v>
-      </c>
       <c r="C75" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C79" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>258</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3186,226 +3189,226 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="D90" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="D96" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
